--- a/Test Open Xml/testdata/testgetnamederanges.xlsx
+++ b/Test Open Xml/testdata/testgetnamederanges.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R5f81564605f74ee5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rb947c352452f4b51"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="Attributes.Enabled" localSheetId="0">Sheet1!$B$2</x:definedName>
